--- a/Proyectos.xlsx
+++ b/Proyectos.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomy\Desktop\Proyectos Personales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D245A5A-4095-4C94-8396-735960B774D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F418DC-C98C-4358-8456-52F94F7800D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
     <sheet name="Certificaciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>N.º</t>
   </si>
@@ -468,7 +467,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Iniciado</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -826,7 +831,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.42578125" defaultRowHeight="39.75" customHeight="1"/>
@@ -835,7 +840,7 @@
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="116.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1">
@@ -885,7 +890,9 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="39.75" customHeight="1">
       <c r="A4" s="2">
@@ -900,7 +907,9 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="39.75" customHeight="1">
       <c r="A5" s="2">
@@ -915,7 +924,9 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.75" customHeight="1">
       <c r="A6" s="2">
@@ -930,7 +941,9 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.75" customHeight="1">
       <c r="A7" s="2">
@@ -945,7 +958,9 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39.75" customHeight="1">
       <c r="A8" s="2">
@@ -960,7 +975,9 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="39.75" customHeight="1">
       <c r="A9" s="2">
@@ -975,7 +992,9 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="39.75" customHeight="1">
       <c r="A10" s="2">
@@ -990,7 +1009,9 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1">
       <c r="A11" s="2">
@@ -1005,7 +1026,9 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
